--- a/proxy/api_elevenlabs.xlsx
+++ b/proxy/api_elevenlabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V\Desktop\Projects\RunwayPlayground\runway-playground\proxy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D493850-D6A6-47A9-B363-CCA9B9AA8768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D4D64D-7B22-4AD0-B9EC-B3E284F9B95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>API Key</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Quota Remaining</t>
+  </si>
+  <si>
+    <t>Last Checked</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Usage Count</t>
+  </si>
+  <si>
+    <t>Total Used This Month</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Last Checked Parsed</t>
+  </si>
+  <si>
+    <t>Account Registred</t>
+  </si>
+  <si>
+    <t>normalized date</t>
+  </si>
+  <si>
+    <t>Next Reset</t>
+  </si>
+  <si>
+    <t>anniversaries</t>
+  </si>
+  <si>
+    <t>Days before Reset</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>Unusual Activity</t>
+  </si>
+  <si>
+    <t>Unusual Activity Time</t>
+  </si>
+  <si>
+    <t>Retry Count</t>
+  </si>
+  <si>
+    <t>2025-08-30 15:36:57</t>
+  </si>
+  <si>
+    <t>Mon Jul 07 2025 14:55:43 GMT+0500 (Qyzylorda Standard Time)</t>
+  </si>
+  <si>
+    <t>sk_xx</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E288" workbookViewId="0">
-      <selection activeCell="M292" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -442,38 +509,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2"/>
-      <c r="B2"/>
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
-      <c r="D2"/>
-      <c r="E2" s="4"/>
-      <c r="G2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2" s="5"/>
+      <c r="D2">
+        <v>97</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="K2" t="str">
+        <f>RIGHT(LEFT(E2,7),2)&amp;"/"&amp;RIGHT(LEFT(E2,10),2)&amp;"/"&amp;LEFT(E2,4)</f>
+        <v>08/30/2025</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="array" ref="M2">_xlfn.IFS(RIGHT(LEFT(L2,7),3)="Jan","1",RIGHT(LEFT(L2,7),3)="Feb","2",RIGHT(LEFT(L2,7),3)="Mar","3",RIGHT(LEFT(L2,7),3)="Apr","4",RIGHT(LEFT(L2,7),3)="May","5",RIGHT(LEFT(L2,7),3)="Jun","6",RIGHT(LEFT(L2,7),3)="Jul","7",RIGHT(LEFT(L2,7),3)="Aug","8",RIGHT(LEFT(L2,7),3)="Sep","9",RIGHT(LEFT(L2,7),3)="Oct","10",RIGHT(LEFT(L2,7),3)="Nov","11",RIGHT(LEFT(L2,7),3)="Dec","12")&amp;"/"&amp;RIGHT(LEFT(L2,10),2)&amp;"/"&amp;RIGHT(LEFT(L2,15),4)</f>
+        <v>7/07/2025</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" ref="N2:N65" ca="1" si="0">M2+(31*O2)+31</f>
+        <v>45938</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O65" ca="1" si="1">ROUNDDOWN((Q$2-M2)/31,0)</f>
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P65" ca="1" si="2">MOD(M2-Q$2,31)</f>
+        <v>26</v>
+      </c>
+      <c r="Q2" s="5">
+        <f ca="1">TODAY()</f>
+        <v>45912</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3"/>
